--- a/Data_clean/MCAS/Estados_US/Edos_USA_2023/WEST_VIRGINIA_2023.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2023/WEST_VIRGINIA_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D141"/>
+  <dimension ref="A1:D135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,34 +360,34 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CHIAPAS</t>
+          <t>Chiapas</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BEJUCAL DE OCAMPO</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C2">
@@ -400,7 +400,7 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>CHAMULA</t>
+          <t>Chamula</t>
         </is>
       </c>
       <c r="C3">
@@ -413,7 +413,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>ESCUINTLA</t>
+          <t>Escuintla</t>
         </is>
       </c>
       <c r="C4">
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>FRONTERA COMALAPA</t>
+          <t>Frontera Comalapa</t>
         </is>
       </c>
       <c r="C5">
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>HUIXTÁN</t>
+          <t>Huixtán</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>LA CONCORDIA</t>
+          <t>La Concordia</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>MAZAPA DE MADERO</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>MOTOZINTLA</t>
+          <t>Motozintla</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>OCOSINGO</t>
+          <t>Ocosingo</t>
         </is>
       </c>
       <c r="C10">
@@ -504,7 +504,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>PANTELHÓ</t>
+          <t>Pantelhó</t>
         </is>
       </c>
       <c r="C11">
@@ -517,7 +517,7 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>SAN CRISTÓBAL DE LAS CASAS</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C12">
@@ -530,7 +530,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>TAPALAPA</t>
+          <t>Tapalapa</t>
         </is>
       </c>
       <c r="C13">
@@ -543,7 +543,7 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>TECPATÁN</t>
+          <t>Tecpatán</t>
         </is>
       </c>
       <c r="C14">
@@ -556,7 +556,7 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>VILLA CORZO</t>
+          <t>Villa Corzo</t>
         </is>
       </c>
       <c r="C15">
@@ -569,7 +569,7 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C16">
@@ -582,12 +582,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CIUDAD DE MÉXICO</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CUAUHTÉMOC</t>
+          <t>Cuauhtémoc</t>
         </is>
       </c>
       <c r="C17">
@@ -600,7 +600,7 @@
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>IZTACALCO</t>
+          <t>Iztacalco</t>
         </is>
       </c>
       <c r="C18">
@@ -613,7 +613,7 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>NEZAHUALCÓYOTL</t>
+          <t>Nezahualcóyotl</t>
         </is>
       </c>
       <c r="C19">
@@ -626,7 +626,7 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>XOCHIMILCO</t>
+          <t>Xochimilco</t>
         </is>
       </c>
       <c r="C20">
@@ -639,7 +639,7 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C21">
@@ -652,12 +652,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>COLIMA</t>
+          <t>Colima</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>IXTLAHUACÁN</t>
+          <t>Ixtlahuacán</t>
         </is>
       </c>
       <c r="C22">
@@ -670,7 +670,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C23">
@@ -683,12 +683,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>DURANGO</t>
+          <t>Durango</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DURANGO</t>
+          <t>Durango</t>
         </is>
       </c>
       <c r="C24">
@@ -701,7 +701,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C25">
@@ -714,12 +714,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ESTADO DE MÉXICO</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NEZAHUALCÓYOTL</t>
+          <t>Nezahualcóyotl</t>
         </is>
       </c>
       <c r="C26">
@@ -732,7 +732,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>SULTEPEC</t>
+          <t>Sultepec</t>
         </is>
       </c>
       <c r="C27">
@@ -745,7 +745,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>TENANCINGO</t>
+          <t>Tenancingo</t>
         </is>
       </c>
       <c r="C28">
@@ -758,7 +758,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>TLATLAYA</t>
+          <t>Tlatlaya</t>
         </is>
       </c>
       <c r="C29">
@@ -771,7 +771,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>TOLUCA</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="C30">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>ZACUALPAN</t>
+          <t>Zacualpan</t>
         </is>
       </c>
       <c r="C31">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C32">
@@ -810,12 +810,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CUERÁMARO</t>
+          <t>Cuerámaro</t>
         </is>
       </c>
       <c r="C33">
@@ -828,7 +828,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>MANUEL DOBLADO</t>
+          <t>Manuel Doblado</t>
         </is>
       </c>
       <c r="C34">
@@ -841,7 +841,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C35">
@@ -854,12 +854,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>GUERRERO</t>
+          <t>Guerrero</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>AJUCHITLÁN DEL PROGRESO</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C36">
@@ -872,7 +872,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>ATOYAC DE ÁLVAREZ</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C37">
@@ -885,7 +885,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>BENITO JUÁREZ</t>
+          <t>Benito Juárez</t>
         </is>
       </c>
       <c r="C38">
@@ -898,7 +898,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>CHILAPA DE ÁLVAREZ</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C39">
@@ -911,7 +911,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>CHILPANCINGO DE LOS BRAVO</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C40">
@@ -924,7 +924,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>COYUCA DE CATALÁN</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C41">
@@ -937,7 +937,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>GENERAL CANUTO A. NERI</t>
+          <t>General Canuto A. Neri</t>
         </is>
       </c>
       <c r="C42">
@@ -950,7 +950,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>MALINALTEPEC</t>
+          <t>Malinaltepec</t>
         </is>
       </c>
       <c r="C43">
@@ -963,7 +963,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>OMETEPEC</t>
+          <t>Ometepec</t>
         </is>
       </c>
       <c r="C44">
@@ -976,7 +976,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>PEDRO ASCENCIO ALQUISIRAS</t>
+          <t>Pedro Ascencio Alquisiras</t>
         </is>
       </c>
       <c r="C45">
@@ -989,7 +989,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>PETATLÁN</t>
+          <t>Petatlán</t>
         </is>
       </c>
       <c r="C46">
@@ -1002,7 +1002,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>ZIHUATANEJO DE AZUETA</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C47">
@@ -1015,7 +1015,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C48">
@@ -1028,12 +1028,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>HIDALGO</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ATOTONILCO EL GRANDE</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C49">
@@ -1046,7 +1046,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>HUASCA DE OCAMPO</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C50">
@@ -1059,7 +1059,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>MINERAL DEL CHICO</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C51">
@@ -1072,7 +1072,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>MIXQUIAHUALA DE JUÁREZ</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C52">
@@ -1085,7 +1085,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>SANTIAGO DE ANAYA</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C53">
@@ -1098,7 +1098,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>TECOZAUTLA</t>
+          <t>Tecozautla</t>
         </is>
       </c>
       <c r="C54">
@@ -1111,7 +1111,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>ZACUALTIPÁN DE ÁNGELES</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C55">
@@ -1124,7 +1124,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C56">
@@ -1137,12 +1137,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>JALISCO</t>
+          <t>Jalisco</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ACATIC</t>
+          <t>Acatic</t>
         </is>
       </c>
       <c r="C57">
@@ -1155,7 +1155,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>ENCARNACIÓN DE DÍAZ</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C58">
@@ -1168,7 +1168,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>GUADALAJARA</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="C59">
@@ -1181,7 +1181,7 @@
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>JESÚS MARÍA</t>
+          <t>Jesús María</t>
         </is>
       </c>
       <c r="C60">
@@ -1194,7 +1194,7 @@
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>OJUELOS DE JALISCO</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C61">
@@ -1207,7 +1207,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>ZAPOPAN</t>
+          <t>Zapopan</t>
         </is>
       </c>
       <c r="C62">
@@ -1220,7 +1220,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C63">
@@ -1233,12 +1233,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>MICHOACÁN DE OCAMPO</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>APATZINGÁN</t>
+          <t>Apatzingán</t>
         </is>
       </c>
       <c r="C64">
@@ -1251,7 +1251,7 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>AQUILA</t>
+          <t>Aquila</t>
         </is>
       </c>
       <c r="C65">
@@ -1264,7 +1264,7 @@
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>INDAPARAPEO</t>
+          <t>Indaparapeo</t>
         </is>
       </c>
       <c r="C66">
@@ -1277,7 +1277,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>LA PIEDAD</t>
+          <t>La Piedad</t>
         </is>
       </c>
       <c r="C67">
@@ -1290,7 +1290,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>MORELIA</t>
+          <t>Morelia</t>
         </is>
       </c>
       <c r="C68">
@@ -1303,7 +1303,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>PARACHO</t>
+          <t>Paracho</t>
         </is>
       </c>
       <c r="C69">
@@ -1316,7 +1316,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>PURÉPERO</t>
+          <t>Purépero</t>
         </is>
       </c>
       <c r="C70">
@@ -1329,7 +1329,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>SAN LUCAS</t>
+          <t>San Lucas</t>
         </is>
       </c>
       <c r="C71">
@@ -1342,7 +1342,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>TIQUICHEO DE NICOLÁS ROMERO</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C72">
@@ -1355,7 +1355,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>URUAPAN</t>
+          <t>Uruapan</t>
         </is>
       </c>
       <c r="C73">
@@ -1368,7 +1368,7 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C74">
@@ -1381,12 +1381,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>OAXACA</t>
+          <t>Oaxaca</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>AYOTZINTEPEC</t>
+          <t>Ayotzintepec</t>
         </is>
       </c>
       <c r="C75">
@@ -1399,7 +1399,7 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>HEROICA CIUDAD DE TLAXIACO</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C76">
@@ -1412,7 +1412,7 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>SAN CARLOS YAUTEPEC</t>
+          <t>San Carlos Yautepec</t>
         </is>
       </c>
       <c r="C77">
@@ -1425,7 +1425,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>SAN MIGUEL PANIXTLAHUACA</t>
+          <t>San Miguel Panixtlahuaca</t>
         </is>
       </c>
       <c r="C78">
@@ -1438,7 +1438,7 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>SAN PEDRO MIXTEPEC -DTO. 22 -</t>
+          <t>San Pedro Mixtepec -Dto. 22 -</t>
         </is>
       </c>
       <c r="C79">
@@ -1451,7 +1451,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>SAN PEDRO MÁRTIR</t>
+          <t>San Pedro Mártir</t>
         </is>
       </c>
       <c r="C80">
@@ -1464,7 +1464,7 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>SAN PEDRO POCHUTLA</t>
+          <t>San Pedro Pochutla</t>
         </is>
       </c>
       <c r="C81">
@@ -1477,7 +1477,7 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>SAN PEDRO TEUTILA</t>
+          <t>San Pedro Teutila</t>
         </is>
       </c>
       <c r="C82">
@@ -1490,7 +1490,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>SANTA CATARINA JUQUILA</t>
+          <t>Santa Catarina Juquila</t>
         </is>
       </c>
       <c r="C83">
@@ -1503,7 +1503,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>SANTA MARÍA COLOTEPEC</t>
+          <t>Santa María Colotepec</t>
         </is>
       </c>
       <c r="C84">
@@ -1516,7 +1516,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>SANTA MARÍA ZACATEPEC</t>
+          <t>Santa María Zacatepec</t>
         </is>
       </c>
       <c r="C85">
@@ -1529,7 +1529,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>SANTIAGO CAMOTLÁN</t>
+          <t>Santiago Camotlán</t>
         </is>
       </c>
       <c r="C86">
@@ -1542,7 +1542,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>SANTIAGO JAMILTEPEC</t>
+          <t>Santiago Jamiltepec</t>
         </is>
       </c>
       <c r="C87">
@@ -1555,7 +1555,7 @@
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO DE MORELOS</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C88">
@@ -1568,7 +1568,7 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>SANTOS REYES NOPALA</t>
+          <t>Santos Reyes Nopala</t>
         </is>
       </c>
       <c r="C89">
@@ -1581,7 +1581,7 @@
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C90">
@@ -1594,12 +1594,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>HUAQUECHULA</t>
+          <t>Huaquechula</t>
         </is>
       </c>
       <c r="C91">
@@ -1612,7 +1612,7 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>HUEJOTZINGO</t>
+          <t>Huejotzingo</t>
         </is>
       </c>
       <c r="C92">
@@ -1625,7 +1625,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="C93">
@@ -1638,7 +1638,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>VENUSTIANO CARRANZA</t>
+          <t>Venustiano Carranza</t>
         </is>
       </c>
       <c r="C94">
@@ -1651,7 +1651,7 @@
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C95">
@@ -1664,12 +1664,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>QUERÉTARO</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>PEÑAMILLER</t>
+          <t>Peñamiller</t>
         </is>
       </c>
       <c r="C96">
@@ -1682,7 +1682,7 @@
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>SAN JUAN DEL RÍO</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C97">
@@ -1695,7 +1695,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C98">
@@ -1708,12 +1708,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>QUINTANA ROO</t>
+          <t>Quintana Roo</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>OTHÓN P. BLANCO</t>
+          <t>Othón P. Blanco</t>
         </is>
       </c>
       <c r="C99">
@@ -1726,7 +1726,7 @@
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C100">
@@ -1739,12 +1739,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>SAN LUIS POTOSÍ</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>HUEHUETLÁN</t>
+          <t>Huehuetlán</t>
         </is>
       </c>
       <c r="C101">
@@ -1757,7 +1757,7 @@
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>RIOVERDE</t>
+          <t>Rioverde</t>
         </is>
       </c>
       <c r="C102">
@@ -1770,7 +1770,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>VILLA HIDALGO</t>
+          <t>Villa Hidalgo</t>
         </is>
       </c>
       <c r="C103">
@@ -1783,7 +1783,7 @@
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C104">
@@ -1796,12 +1796,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>SINALOA</t>
+          <t>Sinaloa</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>AHOME</t>
+          <t>Ahome</t>
         </is>
       </c>
       <c r="C105">
@@ -1814,7 +1814,7 @@
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C106">
@@ -1827,12 +1827,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>TABASCO</t>
+          <t>Tabasco</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="C107">
@@ -1845,7 +1845,7 @@
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>CÁRDENAS</t>
+          <t>Cárdenas</t>
         </is>
       </c>
       <c r="C108">
@@ -1858,7 +1858,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C109">
@@ -1871,12 +1871,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>TAMAULIPAS</t>
+          <t>Tamaulipas</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TAMPICO</t>
+          <t>Tampico</t>
         </is>
       </c>
       <c r="C110">
@@ -1889,7 +1889,7 @@
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C111">
@@ -1902,12 +1902,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>VERACRUZ DE IGNACIO DE LA LLAVE</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ALTOTONGA</t>
+          <t>Altotonga</t>
         </is>
       </c>
       <c r="C112">
@@ -1920,7 +1920,7 @@
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>ATZACAN</t>
+          <t>Atzacan</t>
         </is>
       </c>
       <c r="C113">
@@ -1933,7 +1933,7 @@
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>CALCAHUALCO</t>
+          <t>Calcahualco</t>
         </is>
       </c>
       <c r="C114">
@@ -1946,7 +1946,7 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>CÓRDOBA</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="C115">
@@ -1959,7 +1959,7 @@
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>HUATUSCO</t>
+          <t>Huatusco</t>
         </is>
       </c>
       <c r="C116">
@@ -1972,7 +1972,7 @@
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>IGNACIO DE LA LLAVE</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C117">
@@ -1985,7 +1985,7 @@
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>LAS CHOAPAS</t>
+          <t>Las Choapas</t>
         </is>
       </c>
       <c r="C118">
@@ -1998,7 +1998,7 @@
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>MARIANO ESCOBEDO</t>
+          <t>Mariano Escobedo</t>
         </is>
       </c>
       <c r="C119">
@@ -2011,7 +2011,7 @@
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>MARTÍNEZ DE LA TORRE</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C120">
@@ -2024,7 +2024,7 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>MINATITLÁN</t>
+          <t>Minatitlán</t>
         </is>
       </c>
       <c r="C121">
@@ -2037,7 +2037,7 @@
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>OMEALCA</t>
+          <t>Omealca</t>
         </is>
       </c>
       <c r="C122">
@@ -2050,7 +2050,7 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>PLAYA VICENTE</t>
+          <t>Playa Vicente</t>
         </is>
       </c>
       <c r="C123">
@@ -2063,7 +2063,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>POZA RICA DE HIDALGO</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C124">
@@ -2076,7 +2076,7 @@
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>SAN ANDRÉS TUXTLA</t>
+          <t>San Andrés Tuxtla</t>
         </is>
       </c>
       <c r="C125">
@@ -2089,7 +2089,7 @@
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>TEZONAPA</t>
+          <t>Tezonapa</t>
         </is>
       </c>
       <c r="C126">
@@ -2102,7 +2102,7 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>TLAQUILPA</t>
+          <t>Tlaquilpa</t>
         </is>
       </c>
       <c r="C127">
@@ -2115,7 +2115,7 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>TOMATLÁN</t>
+          <t>Tomatlán</t>
         </is>
       </c>
       <c r="C128">
@@ -2128,7 +2128,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C129">
@@ -2141,12 +2141,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ZACATECAS</t>
+          <t>Zacatecas</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>JEREZ</t>
+          <t>Jerez</t>
         </is>
       </c>
       <c r="C130">
@@ -2159,7 +2159,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>PINOS</t>
+          <t>Pinos</t>
         </is>
       </c>
       <c r="C131">
@@ -2172,7 +2172,7 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>SOMBRERETE</t>
+          <t>Sombrerete</t>
         </is>
       </c>
       <c r="C132">
@@ -2185,7 +2185,7 @@
     <row r="133">
       <c r="B133" t="inlineStr">
         <is>
-          <t>VALPARAÍSO</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="C133">
@@ -2198,7 +2198,7 @@
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C134">
@@ -2211,7 +2211,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C135">
@@ -2219,41 +2219,6 @@
       </c>
       <c r="D135">
         <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 789,030</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>Noviembre de 2024</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2023/WEST_VIRGINIA_2023.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2023/WEST_VIRGINIA_2023.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Chamula</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Escuintla</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -437,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Huixtán</t>
@@ -450,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>La Concordia</t>
@@ -463,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Mazapa De Madero</t>
@@ -476,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -489,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Ocosingo</t>
@@ -502,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Pantelhó</t>
@@ -515,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>San Cristóbal De Las Casas</t>
@@ -528,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Tapalapa</t>
@@ -541,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Tecpatán</t>
@@ -554,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Villa Corzo</t>
@@ -567,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Total</t>
@@ -598,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -611,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -624,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Xochimilco</t>
@@ -637,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Total</t>
@@ -668,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Total</t>
@@ -699,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Total</t>
@@ -730,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Sultepec</t>
@@ -743,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Tenancingo</t>
@@ -756,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Tlatlaya</t>
@@ -769,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -782,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Zacualpan</t>
@@ -795,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Total</t>
@@ -826,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Manuel Doblado</t>
@@ -839,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Total</t>
@@ -870,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Atoyac De Álvarez</t>
@@ -883,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -896,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Chilapa De Álvarez</t>
@@ -909,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -922,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Coyuca De Catalán</t>
@@ -935,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>General Canuto A. Neri</t>
@@ -948,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Malinaltepec</t>
@@ -961,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Ometepec</t>
@@ -974,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Pedro Ascencio Alquisiras</t>
@@ -987,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Petatlán</t>
@@ -1000,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Zihuatanejo De Azueta</t>
@@ -1013,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1044,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Huasca De Ocampo</t>
@@ -1057,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Mineral Del Chico</t>
@@ -1070,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Mixquiahuala De Juárez</t>
@@ -1083,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Santiago De Anaya</t>
@@ -1096,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Tecozautla</t>
@@ -1109,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Zacualtipán De Ángeles</t>
@@ -1122,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1153,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Encarnación De Díaz</t>
@@ -1166,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1179,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -1192,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Ojuelos De Jalisco</t>
@@ -1205,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -1218,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1249,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Aquila</t>
@@ -1262,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Indaparapeo</t>
@@ -1275,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -1288,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -1301,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Paracho</t>
@@ -1314,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Purépero</t>
@@ -1327,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>San Lucas</t>
@@ -1340,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Tiquicheo De Nicolás Romero</t>
@@ -1353,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -1366,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1397,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Tlaxiaco</t>
@@ -1410,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>San Carlos Yautepec</t>
@@ -1423,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>San Miguel Panixtlahuaca</t>
@@ -1436,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>San Pedro Mixtepec -Dto. 22 -</t>
@@ -1449,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>San Pedro Mártir</t>
@@ -1462,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>San Pedro Pochutla</t>
@@ -1475,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>San Pedro Teutila</t>
@@ -1488,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Santa Catarina Juquila</t>
@@ -1501,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Santa María Colotepec</t>
@@ -1514,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Santa María Zacatepec</t>
@@ -1527,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Santiago Camotlán</t>
@@ -1540,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Santiago Jamiltepec</t>
@@ -1553,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Santo Domingo De Morelos</t>
@@ -1566,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Santos Reyes Nopala</t>
@@ -1579,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1610,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Huejotzingo</t>
@@ -1623,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1636,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -1649,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1680,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>San Juan Del Río</t>
@@ -1693,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1724,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1755,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Rioverde</t>
@@ -1768,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Villa Hidalgo</t>
@@ -1781,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1812,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1843,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Cárdenas</t>
@@ -1856,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1887,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1918,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Atzacan</t>
@@ -1931,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Calcahualco</t>
@@ -1944,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -1957,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Huatusco</t>
@@ -1970,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -1983,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -1996,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Mariano Escobedo</t>
@@ -2009,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -2022,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -2035,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Omealca</t>
@@ -2048,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -2061,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Poza Rica De Hidalgo</t>
@@ -2074,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>San Andrés Tuxtla</t>
@@ -2087,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Tezonapa</t>
@@ -2100,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Tlaquilpa</t>
@@ -2113,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Tomatlán</t>
@@ -2126,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2157,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Pinos</t>
@@ -2170,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Sombrerete</t>
@@ -2183,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Valparaíso</t>
@@ -2196,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Total</t>
